--- a/Dataset/2018 Q2 – Subcompact SUV segment.xlsx
+++ b/Dataset/2018 Q2 – Subcompact SUV segment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dubem\Documents\554\Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E823B622-942E-4F5B-92A8-46CB2F4A3F55}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{33B8DBEC-F012-4ACC-9E14-BCB7ECF45FC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15828" windowHeight="5652" xr2:uid="{27EE358B-2B09-4010-83F5-FE20DA362CE2}"/>
   </bookViews>
